--- a/server/assets/副本INTO工作室申请统计表(审核12月31日)发给技术.xlsx
+++ b/server/assets/副本INTO工作室申请统计表(审核12月31日)发给技术.xlsx
@@ -69,7 +69,7 @@
     <t>S5</t>
   </si>
   <si>
-    <t>0x77bd41fdE654FE0054b771Ec6985dC9d5247BAfe</t>
+    <t>0xf37ef94decfbba1ed29ade28a51a3ff5f0f182bb</t>
   </si>
   <si>
     <t>Seven</t>
@@ -87,7 +87,7 @@
     <t>4个视频</t>
   </si>
   <si>
-    <t>2023/11/20--12月31日</t>
+    <t>2023/12/01--12月31日</t>
   </si>
   <si>
     <t>张鲲鹏</t>
@@ -917,7 +917,7 @@
     <t>Amy</t>
   </si>
   <si>
-    <t>0x5b1003eA0f799BD05b6E9750d0E79c570Ab52463</t>
+    <t>0xb4602Eda36C3f35BFFB5A21d4b82806e79E50ee1</t>
   </si>
   <si>
     <t>Mr.MM</t>
@@ -2327,8 +2327,8 @@
   <sheetPr/>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" topLeftCell="E37" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/server/assets/副本INTO工作室申请统计表(审核12月31日)发给技术.xlsx
+++ b/server/assets/副本INTO工作室申请统计表(审核12月31日)发给技术.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12860"/>
+    <workbookView windowWidth="28000" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2327,8 +2327,8 @@
   <sheetPr/>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
